--- a/Grade_Import/Evaluation Form_18-0001.xlsx
+++ b/Grade_Import/Evaluation Form_18-0001.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t>EVALUATION FORM</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Curriculum Year:</t>
   </si>
   <si>
-    <t>Electrical Engineering</t>
+    <t>Information Technology</t>
   </si>
   <si>
     <t>Student Number:</t>
@@ -60,73 +60,40 @@
     <t>Remarks</t>
   </si>
   <si>
-    <t>EE 29</t>
-  </si>
-  <si>
-    <t>Power Systems and Analysis with Lab</t>
-  </si>
-  <si>
-    <t>EE 19 and EE 23</t>
-  </si>
-  <si>
-    <t>EE ELEC 2</t>
-  </si>
-  <si>
-    <t>EE Elective 2 (Renewable Energy)</t>
-  </si>
-  <si>
-    <t>EE ELEC 1</t>
-  </si>
-  <si>
-    <t>EE 28</t>
-  </si>
-  <si>
-    <t>Instrumentation and Control with Lab</t>
-  </si>
-  <si>
-    <t>EE 21</t>
-  </si>
-  <si>
-    <t>EE 30</t>
-  </si>
-  <si>
-    <t>Research Project or Capstone Design Project(Thesis 2)</t>
-  </si>
-  <si>
-    <t>EE 25</t>
-  </si>
-  <si>
-    <t>EE 31</t>
-  </si>
-  <si>
-    <t>Seminars/ Colloquia</t>
-  </si>
-  <si>
-    <t>4th year standing</t>
-  </si>
-  <si>
-    <t>EE 32</t>
-  </si>
-  <si>
-    <t>Fundamentals of Power Plant Engineering and Design</t>
+    <t>SEMTR</t>
+  </si>
+  <si>
+    <t>Seminars and Colloquia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>ST 2</t>
   </si>
   <si>
-    <t>Special Topics 2 (EE Review)</t>
-  </si>
-  <si>
-    <t>ST1</t>
+    <t>Special Topics 2 (Programming and Database)</t>
+  </si>
+  <si>
+    <t>TECHNO</t>
+  </si>
+  <si>
+    <t>Technopreneurship</t>
+  </si>
+  <si>
+    <t>TECHNO L</t>
+  </si>
+  <si>
+    <t>Technopreneurship L</t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t>Test Student2</t>
   </si>
   <si>
     <t>18-0001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test Student1 </t>
-  </si>
-  <si>
-    <t>Passed</t>
   </si>
 </sst>
 </file>
@@ -490,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="B3" sqref="B3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -522,7 +489,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="5" t="s">
@@ -539,14 +506,14 @@
         <v>4</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="9"/>
+        <v>24</v>
+      </c>
+      <c r="C3" s="10"/>
       <c r="D3" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="9">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="3"/>
@@ -576,7 +543,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>166</v>
+        <v>214</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>13</v>
@@ -585,7 +552,7 @@
         <v>14</v>
       </c>
       <c r="D6" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>15</v>
@@ -594,12 +561,12 @@
         <v>1.25</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>167</v>
+        <v>216</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>16</v>
@@ -611,128 +578,59 @@
         <v>3</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F7" s="7">
         <v>1.5</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>168</v>
+        <v>217</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>20</v>
-      </c>
       <c r="D8" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F8" s="7">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>169</v>
+        <v>218</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F9" s="7">
         <v>1</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1">
-        <v>170</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1">
-        <v>171</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="7">
-        <v>1.25</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="1">
-        <v>172</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="1">
-        <v>1</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
